--- a/CSTax.xlsx
+++ b/CSTax.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skyma\My Drive\University\UC\Rosetta Taxonomies\TaxGen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{64C35611-46FA-4EAC-A74A-635CDFC50B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF721F6-75B8-4234-A56E-CF0C9A87AE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HowTo" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="259">
   <si>
     <t>Article title</t>
   </si>
@@ -749,12 +749,63 @@
   </si>
   <si>
     <t>Not currently used</t>
+  </si>
+  <si>
+    <t>A Second Article</t>
+  </si>
+  <si>
+    <t>Simon Tester</t>
+  </si>
+  <si>
+    <t>An Extra Defintion</t>
+  </si>
+  <si>
+    <t>Png et al.</t>
+  </si>
+  <si>
+    <t>A third article</t>
+  </si>
+  <si>
+    <t>Synonym (same article)</t>
+  </si>
+  <si>
+    <t>References (another paper)</t>
+  </si>
+  <si>
+    <t>Willison and Warketin</t>
+  </si>
+  <si>
+    <t>A fourth article</t>
+  </si>
+  <si>
+    <t>1a</t>
+  </si>
+  <si>
+    <t>1b</t>
+  </si>
+  <si>
+    <t>1c</t>
+  </si>
+  <si>
+    <t>a second base article</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>5a</t>
+  </si>
+  <si>
+    <t>http://docs.apwg.org/reports/apwg_trends_report_q4_2017.pdf</t>
+  </si>
+  <si>
+    <t>APWG phishing trends report 4th quarter 2017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1623,7 +1674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
@@ -1800,18 +1851,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.140625" style="5"/>
     <col min="2" max="2" width="96" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="51.28515625" customWidth="1"/>
@@ -1819,7 +1871,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>218</v>
       </c>
       <c r="B1" t="s">
@@ -1836,7 +1888,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1847,6 +1899,90 @@
       </c>
       <c r="D2" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3">
+        <v>2022</v>
+      </c>
+      <c r="D3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C4">
+        <v>2008</v>
+      </c>
+      <c r="D4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C5">
+        <v>2013</v>
+      </c>
+      <c r="D5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C6">
+        <v>2004</v>
+      </c>
+      <c r="D6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C7">
+        <v>2013</v>
+      </c>
+      <c r="D7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C8">
+        <v>2017</v>
+      </c>
+      <c r="D8" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -1855,14 +1991,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:F196"/>
+  <dimension ref="A1:F197"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1871,7 +2007,7 @@
     <col min="3" max="3" width="66.85546875" customWidth="1"/>
     <col min="4" max="4" width="26.7109375" customWidth="1"/>
     <col min="5" max="5" width="116.42578125" customWidth="1"/>
-    <col min="6" max="6" width="29.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1885,13 +2021,13 @@
         <v>221</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>247</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2215,7 +2351,7 @@
         <v>49</v>
       </c>
       <c r="F40" t="s">
-        <v>50</v>
+        <v>253</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
@@ -2226,7 +2362,7 @@
         <v>51</v>
       </c>
       <c r="F41" t="s">
-        <v>52</v>
+        <v>252</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
@@ -2428,8 +2564,8 @@
       <c r="C66" t="s">
         <v>77</v>
       </c>
-      <c r="F66" t="s">
-        <v>78</v>
+      <c r="F66">
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
@@ -3458,7 +3594,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B193" s="5">
         <v>1</v>
       </c>
@@ -3466,7 +3602,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B194" s="5">
         <v>1</v>
       </c>
@@ -3474,7 +3610,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B195" s="5">
         <v>1</v>
       </c>
@@ -3485,12 +3621,23 @@
         <v>35</v>
       </c>
     </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B196" s="5">
         <v>1</v>
       </c>
       <c r="C196" t="s">
         <v>212</v>
+      </c>
+    </row>
+    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B197" s="5">
+        <v>2</v>
+      </c>
+      <c r="C197" t="s">
+        <v>208</v>
+      </c>
+      <c r="E197" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -3499,7 +3646,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
